--- a/Data/03_Arbeid og næringsliv/01_Arbeidsliv/NAV/Tidsserie ledighet Telemark Fylkeskommune. En måned_36_4526285316607694739.xlsx
+++ b/Data/03_Arbeid og næringsliv/01_Arbeidsliv/NAV/Tidsserie ledighet Telemark Fylkeskommune. En måned_36_4526285316607694739.xlsx
@@ -1,11 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <workbookPr defaultThemeVersion="202300"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://telemarkfylke-my.sharepoint.com/personal/even_sannes_riiser_telemarkfylke_no/Documents/Github/Telemark/Data/03_Arbeid og næringsliv/01_Arbeidsliv/NAV/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_C12A1F8BCF640F2C88EB65F205329D794230933F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1C4A5A10-8CB7-4607-9AE2-FD40F63B6D91}"/>
+  <bookViews>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="38610" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="Fylker" sheetId="1" r:id="rId1"/>
     <sheet name="Landet" sheetId="2" r:id="rId2"/>
     <sheet name="Telemark" sheetId="3" r:id="rId3"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -165,12 +177,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="172" formatCode="General"/>
-    <numFmt numFmtId="173" formatCode="#,##0"/>
-  </numFmts>
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -178,12 +186,12 @@
     </font>
     <font>
       <sz val="9"/>
-      <color rgb="00333333"/>
+      <color rgb="FF333333"/>
       <name val="Arial"/>
     </font>
     <font>
       <sz val="9"/>
-      <color rgb="00FF0000"/>
+      <color rgb="FFFF0000"/>
       <name val="Arial"/>
     </font>
   </fonts>
@@ -192,10 +200,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <fgColor rgb="00000000"/>
-        <bgColor rgb="00000000"/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -220,16 +225,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="00DDDDDD"/>
+        <color rgb="FFDDDDDD"/>
       </left>
       <right style="thin">
-        <color rgb="00DDDDDD"/>
+        <color rgb="FFDDDDDD"/>
       </right>
       <top style="thin">
-        <color rgb="00DDDDDD"/>
+        <color rgb="FFDDDDDD"/>
       </top>
       <bottom style="thin">
-        <color rgb="00DDDDDD"/>
+        <color rgb="FFDDDDDD"/>
       </bottom>
       <diagonal/>
     </border>
@@ -238,54 +243,385 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="8">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom"/>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="172" fontId="1" fillId="2" borderId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="bottom"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="173" fontId="1" fillId="2" borderId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="bottom"/>
+    <xf numFmtId="3" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="bottom"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="0E2841"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E8E8E8"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="156082"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="E97132"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="196B24"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="0F9ED5"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="A02B93"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="4EA72E"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="467886"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="96607D"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q92"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B1:R92"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O8" sqref="O8"/>
+    </sheetView>
   </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.70439866666667" customWidth="1"/>
-    <col min="2" max="4" width="10.7163133333333" customWidth="1"/>
-    <col min="5" max="5" width="32.5626333333333" customWidth="1"/>
-    <col min="6" max="6" width="31.2317" customWidth="1"/>
-    <col min="7" max="9" width="10.7163133333333" customWidth="1"/>
-    <col min="10" max="10" width="2.12228666666667" customWidth="1"/>
-    <col min="11" max="13" width="10.7163133333333" customWidth="1"/>
-    <col min="14" max="14" width="32.5626333333333" customWidth="1"/>
-    <col min="15" max="15" width="31.2317" customWidth="1"/>
-    <col min="16" max="16" width="12.5986333333333" customWidth="1"/>
-    <col min="17" max="18" width="10.7163133333333" customWidth="1"/>
+    <col min="1" max="1" width="5.7109375" customWidth="1"/>
+    <col min="2" max="4" width="10.7109375" customWidth="1"/>
+    <col min="5" max="5" width="32.5703125" customWidth="1"/>
+    <col min="6" max="6" width="31.28515625" customWidth="1"/>
+    <col min="7" max="9" width="10.7109375" customWidth="1"/>
+    <col min="10" max="10" width="6.85546875" customWidth="1"/>
+    <col min="11" max="13" width="10.7109375" customWidth="1"/>
+    <col min="14" max="14" width="32.5703125" customWidth="1"/>
+    <col min="15" max="15" width="31.28515625" customWidth="1"/>
+    <col min="16" max="16" width="12.5703125" customWidth="1"/>
+    <col min="17" max="18" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="83.7281" customHeight="1"/>
-    <row r="2" s="1" customFormat="1" ht="23.9985" customHeight="1">
+    <row r="1" spans="2:18" s="1" customFormat="1" ht="83.65" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="2:18" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -331,7 +667,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="3" spans="2:18" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="4">
         <v>2025</v>
       </c>
@@ -354,7 +690,7 @@
         <v>1220</v>
       </c>
       <c r="I3" s="4">
-        <v>600000e-6</v>
+        <v>0.6</v>
       </c>
       <c r="K3" s="4">
         <v>2025</v>
@@ -378,10 +714,10 @@
         <v>2166</v>
       </c>
       <c r="R3" s="4">
-        <v>500000e-6</v>
-      </c>
-    </row>
-    <row r="4" s="1" customFormat="1" ht="19.7321" customHeight="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="4" spans="2:18" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="4">
         <v>2025</v>
       </c>
@@ -404,7 +740,7 @@
         <v>946</v>
       </c>
       <c r="I4" s="4">
-        <v>400000e-6</v>
+        <v>0.4</v>
       </c>
       <c r="K4" s="4">
         <v>2025</v>
@@ -428,10 +764,10 @@
         <v>3143</v>
       </c>
       <c r="R4" s="4">
-        <v>800000e-6</v>
-      </c>
-    </row>
-    <row r="5" s="1" customFormat="1" ht="19.7321" customHeight="1">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="5" spans="2:18" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="4">
         <v>2025</v>
       </c>
@@ -454,7 +790,7 @@
         <v>1581</v>
       </c>
       <c r="I5" s="4">
-        <v>800000e-6</v>
+        <v>0.8</v>
       </c>
       <c r="K5" s="4">
         <v>2025</v>
@@ -481,7 +817,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="6" spans="2:18" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="4">
         <v>2025</v>
       </c>
@@ -504,7 +840,7 @@
         <v>1562</v>
       </c>
       <c r="I6" s="4">
-        <v>700000e-6</v>
+        <v>0.7</v>
       </c>
       <c r="K6" s="4">
         <v>2025</v>
@@ -528,10 +864,10 @@
         <v>1500</v>
       </c>
       <c r="R6" s="4">
-        <v>600000e-6</v>
-      </c>
-    </row>
-    <row r="7" s="1" customFormat="1" ht="19.7321" customHeight="1">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="7" spans="2:18" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="4">
         <v>2025</v>
       </c>
@@ -578,10 +914,10 @@
         <v>1636</v>
       </c>
       <c r="R7" s="4">
-        <v>600000e-6</v>
-      </c>
-    </row>
-    <row r="8" s="1" customFormat="1" ht="19.7321" customHeight="1">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="8" spans="2:18" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="4">
         <v>2025</v>
       </c>
@@ -631,7 +967,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="9" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="9" spans="2:18" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="4">
         <v>2025</v>
       </c>
@@ -654,7 +990,7 @@
         <v>859</v>
       </c>
       <c r="I9" s="4">
-        <v>700000e-6</v>
+        <v>0.7</v>
       </c>
       <c r="K9" s="4">
         <v>2025</v>
@@ -678,10 +1014,10 @@
         <v>888</v>
       </c>
       <c r="R9" s="4">
-        <v>600000e-6</v>
-      </c>
-    </row>
-    <row r="10" s="1" customFormat="1" ht="19.7321" customHeight="1">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="10" spans="2:18" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="4">
         <v>2025</v>
       </c>
@@ -704,7 +1040,7 @@
         <v>641</v>
       </c>
       <c r="I10" s="4">
-        <v>400000e-6</v>
+        <v>0.4</v>
       </c>
       <c r="K10" s="4">
         <v>2025</v>
@@ -728,10 +1064,10 @@
         <v>998</v>
       </c>
       <c r="R10" s="4">
-        <v>700000e-6</v>
-      </c>
-    </row>
-    <row r="11" s="1" customFormat="1" ht="19.7321" customHeight="1">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="11" spans="2:18" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="4">
         <v>2025</v>
       </c>
@@ -754,7 +1090,7 @@
         <v>937</v>
       </c>
       <c r="I11" s="4">
-        <v>800000e-6</v>
+        <v>0.8</v>
       </c>
       <c r="K11" s="4">
         <v>2025</v>
@@ -781,7 +1117,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="12" spans="2:18" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="4">
         <v>2025</v>
       </c>
@@ -804,7 +1140,7 @@
         <v>699</v>
       </c>
       <c r="I12" s="4">
-        <v>500000e-6</v>
+        <v>0.5</v>
       </c>
       <c r="K12" s="4">
         <v>2025</v>
@@ -828,10 +1164,10 @@
         <v>727</v>
       </c>
       <c r="R12" s="4">
-        <v>600000e-6</v>
-      </c>
-    </row>
-    <row r="13" s="1" customFormat="1" ht="19.7321" customHeight="1">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="13" spans="2:18" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="4">
         <v>2025</v>
       </c>
@@ -878,10 +1214,10 @@
         <v>851</v>
       </c>
       <c r="R13" s="4">
-        <v>700000e-6</v>
-      </c>
-    </row>
-    <row r="14" s="1" customFormat="1" ht="19.7321" customHeight="1">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="14" spans="2:18" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="4">
         <v>2025</v>
       </c>
@@ -931,7 +1267,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="15" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="15" spans="2:18" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="4">
         <v>2025</v>
       </c>
@@ -954,7 +1290,7 @@
         <v>476</v>
       </c>
       <c r="I15" s="4">
-        <v>700000e-6</v>
+        <v>0.7</v>
       </c>
       <c r="K15" s="4">
         <v>2025</v>
@@ -978,10 +1314,10 @@
         <v>1222</v>
       </c>
       <c r="R15" s="4">
-        <v>800000e-6</v>
-      </c>
-    </row>
-    <row r="16" s="1" customFormat="1" ht="19.7321" customHeight="1">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="16" spans="2:18" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="4">
         <v>2025</v>
       </c>
@@ -1004,7 +1340,7 @@
         <v>412</v>
       </c>
       <c r="I16" s="4">
-        <v>500000e-6</v>
+        <v>0.5</v>
       </c>
       <c r="K16" s="4">
         <v>2025</v>
@@ -1028,10 +1364,10 @@
         <v>1417</v>
       </c>
       <c r="R16" s="4">
-        <v>900000e-6</v>
-      </c>
-    </row>
-    <row r="17" s="1" customFormat="1" ht="19.7321" customHeight="1">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="17" spans="2:18" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="4">
         <v>2025</v>
       </c>
@@ -1054,7 +1390,7 @@
         <v>533</v>
       </c>
       <c r="I17" s="4">
-        <v>800000e-6</v>
+        <v>0.8</v>
       </c>
       <c r="K17" s="4">
         <v>2025</v>
@@ -1081,7 +1417,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="18" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="18" spans="2:18" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="4">
         <v>2025</v>
       </c>
@@ -1104,7 +1440,7 @@
         <v>465</v>
       </c>
       <c r="I18" s="4">
-        <v>600000e-6</v>
+        <v>0.6</v>
       </c>
       <c r="K18" s="4">
         <v>2025</v>
@@ -1128,10 +1464,10 @@
         <v>2180</v>
       </c>
       <c r="R18" s="4">
-        <v>600000e-6</v>
-      </c>
-    </row>
-    <row r="19" s="1" customFormat="1" ht="19.7321" customHeight="1">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="19" spans="2:18" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="4">
         <v>2025</v>
       </c>
@@ -1178,10 +1514,10 @@
         <v>2621</v>
       </c>
       <c r="R19" s="4">
-        <v>700000e-6</v>
-      </c>
-    </row>
-    <row r="20" s="1" customFormat="1" ht="19.7321" customHeight="1">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="20" spans="2:18" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="4">
         <v>2025</v>
       </c>
@@ -1231,7 +1567,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="21" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="21" spans="2:18" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="4">
         <v>2025</v>
       </c>
@@ -1254,7 +1590,7 @@
         <v>367</v>
       </c>
       <c r="I21" s="4">
-        <v>600000e-6</v>
+        <v>0.6</v>
       </c>
       <c r="K21" s="4">
         <v>2025</v>
@@ -1278,10 +1614,10 @@
         <v>816</v>
       </c>
       <c r="R21" s="4">
-        <v>600000e-6</v>
-      </c>
-    </row>
-    <row r="22" s="1" customFormat="1" ht="19.7321" customHeight="1">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="22" spans="2:18" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="4">
         <v>2025</v>
       </c>
@@ -1304,7 +1640,7 @@
         <v>360</v>
       </c>
       <c r="I22" s="4">
-        <v>600000e-6</v>
+        <v>0.6</v>
       </c>
       <c r="K22" s="4">
         <v>2025</v>
@@ -1328,10 +1664,10 @@
         <v>1126</v>
       </c>
       <c r="R22" s="4">
-        <v>800000e-6</v>
-      </c>
-    </row>
-    <row r="23" s="1" customFormat="1" ht="19.7321" customHeight="1">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="23" spans="2:18" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="4">
         <v>2025</v>
       </c>
@@ -1354,7 +1690,7 @@
         <v>396</v>
       </c>
       <c r="I23" s="4">
-        <v>700000e-6</v>
+        <v>0.7</v>
       </c>
       <c r="K23" s="4">
         <v>2025</v>
@@ -1381,7 +1717,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="24" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="24" spans="2:18" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="4">
         <v>2025</v>
       </c>
@@ -1404,7 +1740,7 @@
         <v>455</v>
       </c>
       <c r="I24" s="4">
-        <v>700000e-6</v>
+        <v>0.7</v>
       </c>
       <c r="K24" s="4">
         <v>2025</v>
@@ -1428,10 +1764,10 @@
         <v>1035</v>
       </c>
       <c r="R24" s="4">
-        <v>600000e-6</v>
-      </c>
-    </row>
-    <row r="25" s="1" customFormat="1" ht="19.7321" customHeight="1">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="25" spans="2:18" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="4">
         <v>2025</v>
       </c>
@@ -1478,10 +1814,10 @@
         <v>1511</v>
       </c>
       <c r="R25" s="4">
-        <v>800000e-6</v>
-      </c>
-    </row>
-    <row r="26" s="1" customFormat="1" ht="19.7321" customHeight="1">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="26" spans="2:18" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="4">
         <v>2025</v>
       </c>
@@ -1504,7 +1840,7 @@
         <v>1436</v>
       </c>
       <c r="I26" s="4">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="K26" s="4">
         <v>2025</v>
@@ -1531,7 +1867,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="27" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="27" spans="2:18" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="4">
         <v>2025</v>
       </c>
@@ -1554,7 +1890,7 @@
         <v>584</v>
       </c>
       <c r="I27" s="4">
-        <v>800000e-6</v>
+        <v>0.8</v>
       </c>
       <c r="K27" s="4">
         <v>2025</v>
@@ -1578,10 +1914,10 @@
         <v>641</v>
       </c>
       <c r="R27" s="4">
-        <v>500000e-6</v>
-      </c>
-    </row>
-    <row r="28" s="1" customFormat="1" ht="19.7321" customHeight="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="28" spans="2:18" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="4">
         <v>2025</v>
       </c>
@@ -1604,7 +1940,7 @@
         <v>638</v>
       </c>
       <c r="I28" s="4">
-        <v>800000e-6</v>
+        <v>0.8</v>
       </c>
       <c r="K28" s="4">
         <v>2025</v>
@@ -1628,10 +1964,10 @@
         <v>1175</v>
       </c>
       <c r="R28" s="4">
-        <v>900000e-6</v>
-      </c>
-    </row>
-    <row r="29" s="1" customFormat="1" ht="19.7321" customHeight="1">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="29" spans="2:18" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="4">
         <v>2025</v>
       </c>
@@ -1681,7 +2017,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="30" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="30" spans="2:18" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="4">
         <v>2025</v>
       </c>
@@ -1704,7 +2040,7 @@
         <v>706</v>
       </c>
       <c r="I30" s="4">
-        <v>900000e-6</v>
+        <v>0.9</v>
       </c>
       <c r="K30" s="4">
         <v>2025</v>
@@ -1728,10 +2064,10 @@
         <v>649</v>
       </c>
       <c r="R30" s="4">
-        <v>700000e-6</v>
-      </c>
-    </row>
-    <row r="31" s="1" customFormat="1" ht="19.7321" customHeight="1">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="31" spans="2:18" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="4">
         <v>2025</v>
       </c>
@@ -1778,10 +2114,10 @@
         <v>826</v>
       </c>
       <c r="R31" s="4">
-        <v>900000e-6</v>
-      </c>
-    </row>
-    <row r="32" s="1" customFormat="1" ht="19.7321" customHeight="1">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="32" spans="2:18" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="4">
         <v>2025</v>
       </c>
@@ -1831,7 +2167,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="33" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="33" spans="2:18" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="4">
         <v>2025</v>
       </c>
@@ -1854,7 +2190,7 @@
         <v>1154</v>
       </c>
       <c r="I33" s="4">
-        <v>600000e-6</v>
+        <v>0.6</v>
       </c>
       <c r="K33" s="4">
         <v>2025</v>
@@ -1878,10 +2214,10 @@
         <v>1363</v>
       </c>
       <c r="R33" s="4">
-        <v>900000e-6</v>
-      </c>
-    </row>
-    <row r="34" s="1" customFormat="1" ht="19.7321" customHeight="1">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="4">
         <v>2025</v>
       </c>
@@ -1904,7 +2240,7 @@
         <v>1026</v>
       </c>
       <c r="I34" s="4">
-        <v>500000e-6</v>
+        <v>0.5</v>
       </c>
       <c r="K34" s="4">
         <v>2025</v>
@@ -1928,10 +2264,10 @@
         <v>1248</v>
       </c>
       <c r="R34" s="4">
-        <v>800000e-6</v>
-      </c>
-    </row>
-    <row r="35" s="1" customFormat="1" ht="19.7321" customHeight="1">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="4">
         <v>2025</v>
       </c>
@@ -1954,7 +2290,7 @@
         <v>1313</v>
       </c>
       <c r="I35" s="4">
-        <v>700000e-6</v>
+        <v>0.7</v>
       </c>
       <c r="K35" s="4">
         <v>2025</v>
@@ -1981,7 +2317,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="36" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="36" spans="2:18" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="4">
         <v>2025</v>
       </c>
@@ -2004,7 +2340,7 @@
         <v>1308</v>
       </c>
       <c r="I36" s="4">
-        <v>600000e-6</v>
+        <v>0.6</v>
       </c>
       <c r="K36" s="4">
         <v>2025</v>
@@ -2028,10 +2364,10 @@
         <v>1863</v>
       </c>
       <c r="R36" s="4">
-        <v>500000e-6</v>
-      </c>
-    </row>
-    <row r="37" s="1" customFormat="1" ht="19.7321" customHeight="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="4">
         <v>2025</v>
       </c>
@@ -2078,10 +2414,10 @@
         <v>2297</v>
       </c>
       <c r="R37" s="4">
-        <v>700000e-6</v>
-      </c>
-    </row>
-    <row r="38" s="1" customFormat="1" ht="19.7321" customHeight="1">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="38" spans="2:18" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="4">
         <v>2025</v>
       </c>
@@ -2131,7 +2467,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="39" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="39" spans="2:18" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="4">
         <v>2025</v>
       </c>
@@ -2154,7 +2490,7 @@
         <v>414</v>
       </c>
       <c r="I39" s="4">
-        <v>600000e-6</v>
+        <v>0.6</v>
       </c>
       <c r="K39" s="4">
         <v>2025</v>
@@ -2178,10 +2514,10 @@
         <v>1028</v>
       </c>
       <c r="R39" s="4">
-        <v>400000e-6</v>
-      </c>
-    </row>
-    <row r="40" s="1" customFormat="1" ht="19.7321" customHeight="1">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="40" spans="2:18" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="4">
         <v>2025</v>
       </c>
@@ -2204,7 +2540,7 @@
         <v>402</v>
       </c>
       <c r="I40" s="4">
-        <v>500000e-6</v>
+        <v>0.5</v>
       </c>
       <c r="K40" s="4">
         <v>2025</v>
@@ -2228,10 +2564,10 @@
         <v>1771</v>
       </c>
       <c r="R40" s="4">
-        <v>700000e-6</v>
-      </c>
-    </row>
-    <row r="41" s="1" customFormat="1" ht="19.7321" customHeight="1">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="41" spans="2:18" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" s="4">
         <v>2025</v>
       </c>
@@ -2254,7 +2590,7 @@
         <v>592</v>
       </c>
       <c r="I41" s="4">
-        <v>900000e-6</v>
+        <v>0.9</v>
       </c>
       <c r="K41" s="4">
         <v>2025</v>
@@ -2281,7 +2617,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="42" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="42" spans="2:18" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B42" s="4">
         <v>2025</v>
       </c>
@@ -2304,7 +2640,7 @@
         <v>534</v>
       </c>
       <c r="I42" s="4">
-        <v>700000e-6</v>
+        <v>0.7</v>
       </c>
       <c r="K42" s="4">
         <v>2025</v>
@@ -2328,10 +2664,10 @@
         <v>366</v>
       </c>
       <c r="R42" s="4">
-        <v>400000e-6</v>
-      </c>
-    </row>
-    <row r="43" s="1" customFormat="1" ht="19.7321" customHeight="1">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B43" s="4">
         <v>2025</v>
       </c>
@@ -2378,10 +2714,10 @@
         <v>467</v>
       </c>
       <c r="R43" s="4">
-        <v>500000e-6</v>
-      </c>
-    </row>
-    <row r="44" s="1" customFormat="1" ht="19.7321" customHeight="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B44" s="4">
         <v>2025</v>
       </c>
@@ -2431,7 +2767,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="45" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="45" spans="2:18" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B45" s="4">
         <v>2025</v>
       </c>
@@ -2454,7 +2790,7 @@
         <v>555</v>
       </c>
       <c r="I45" s="4">
-        <v>600000e-6</v>
+        <v>0.6</v>
       </c>
       <c r="K45" s="4">
         <v>2025</v>
@@ -2478,10 +2814,10 @@
         <v>221</v>
       </c>
       <c r="R45" s="4">
-        <v>600000e-6</v>
-      </c>
-    </row>
-    <row r="46" s="1" customFormat="1" ht="19.7321" customHeight="1">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B46" s="4">
         <v>2025</v>
       </c>
@@ -2504,7 +2840,7 @@
         <v>480</v>
       </c>
       <c r="I46" s="4">
-        <v>500000e-6</v>
+        <v>0.5</v>
       </c>
       <c r="K46" s="4">
         <v>2025</v>
@@ -2531,7 +2867,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="47" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="47" spans="2:18" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B47" s="4">
         <v>2025</v>
       </c>
@@ -2554,7 +2890,7 @@
         <v>758</v>
       </c>
       <c r="I47" s="4">
-        <v>900000e-6</v>
+        <v>0.9</v>
       </c>
       <c r="K47" s="4">
         <v>2025</v>
@@ -2581,7 +2917,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="48" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="48" spans="2:18" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B48" s="4">
         <v>2025</v>
       </c>
@@ -2604,10 +2940,10 @@
         <v>753</v>
       </c>
       <c r="I48" s="4">
-        <v>800000e-6</v>
-      </c>
-    </row>
-    <row r="49" s="1" customFormat="1" ht="19.7321" customHeight="1">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="49" spans="2:9" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B49" s="4">
         <v>2025</v>
       </c>
@@ -2633,7 +2969,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="50" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="50" spans="2:9" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B50" s="4">
         <v>2025</v>
       </c>
@@ -2659,7 +2995,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="51" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="51" spans="2:9" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B51" s="4">
         <v>2025</v>
       </c>
@@ -2682,10 +3018,10 @@
         <v>285</v>
       </c>
       <c r="I51" s="4">
-        <v>500000e-6</v>
-      </c>
-    </row>
-    <row r="52" s="1" customFormat="1" ht="19.7321" customHeight="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="52" spans="2:9" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B52" s="4">
         <v>2025</v>
       </c>
@@ -2708,10 +3044,10 @@
         <v>356</v>
       </c>
       <c r="I52" s="4">
-        <v>500000e-6</v>
-      </c>
-    </row>
-    <row r="53" s="1" customFormat="1" ht="19.7321" customHeight="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="53" spans="2:9" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B53" s="4">
         <v>2025</v>
       </c>
@@ -2737,7 +3073,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="54" spans="2:9" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B54" s="4">
         <v>2025</v>
       </c>
@@ -2760,10 +3096,10 @@
         <v>563</v>
       </c>
       <c r="I54" s="4">
-        <v>800000e-6</v>
-      </c>
-    </row>
-    <row r="55" s="1" customFormat="1" ht="19.7321" customHeight="1">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="55" spans="2:9" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B55" s="4">
         <v>2025</v>
       </c>
@@ -2786,10 +3122,10 @@
         <v>1386</v>
       </c>
       <c r="I55" s="4">
-        <v>2.3</v>
-      </c>
-    </row>
-    <row r="56" s="1" customFormat="1" ht="19.7321" customHeight="1">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="56" spans="2:9" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B56" s="4">
         <v>2025</v>
       </c>
@@ -2815,7 +3151,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="57" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="57" spans="2:9" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B57" s="4">
         <v>2025</v>
       </c>
@@ -2838,10 +3174,10 @@
         <v>306</v>
       </c>
       <c r="I57" s="4">
-        <v>700000e-6</v>
-      </c>
-    </row>
-    <row r="58" s="1" customFormat="1" ht="19.7321" customHeight="1">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="58" spans="2:9" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B58" s="4">
         <v>2025</v>
       </c>
@@ -2864,10 +3200,10 @@
         <v>343</v>
       </c>
       <c r="I58" s="4">
-        <v>700000e-6</v>
-      </c>
-    </row>
-    <row r="59" s="1" customFormat="1" ht="19.7321" customHeight="1">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="59" spans="2:9" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B59" s="4">
         <v>2025</v>
       </c>
@@ -2893,7 +3229,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="60" spans="2:9" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B60" s="4">
         <v>2025</v>
       </c>
@@ -2916,10 +3252,10 @@
         <v>413</v>
       </c>
       <c r="I60" s="4">
-        <v>900000e-6</v>
-      </c>
-    </row>
-    <row r="61" s="1" customFormat="1" ht="19.7321" customHeight="1">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="61" spans="2:9" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B61" s="4">
         <v>2025</v>
       </c>
@@ -2942,10 +3278,10 @@
         <v>912</v>
       </c>
       <c r="I61" s="4">
-        <v>2.2</v>
-      </c>
-    </row>
-    <row r="62" s="1" customFormat="1" ht="19.7321" customHeight="1">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="62" spans="2:9" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B62" s="4">
         <v>2025</v>
       </c>
@@ -2971,7 +3307,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="63" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="63" spans="2:9" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B63" s="4">
         <v>2025</v>
       </c>
@@ -2994,10 +3330,10 @@
         <v>688</v>
       </c>
       <c r="I63" s="4">
-        <v>900000e-6</v>
-      </c>
-    </row>
-    <row r="64" s="1" customFormat="1" ht="19.7321" customHeight="1">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="64" spans="2:9" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B64" s="4">
         <v>2025</v>
       </c>
@@ -3020,10 +3356,10 @@
         <v>675</v>
       </c>
       <c r="I64" s="4">
-        <v>800000e-6</v>
-      </c>
-    </row>
-    <row r="65" s="1" customFormat="1" ht="19.7321" customHeight="1">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="65" spans="2:9" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B65" s="4">
         <v>2025</v>
       </c>
@@ -3046,10 +3382,10 @@
         <v>607</v>
       </c>
       <c r="I65" s="4">
-        <v>800000e-6</v>
-      </c>
-    </row>
-    <row r="66" s="1" customFormat="1" ht="19.7321" customHeight="1">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="66" spans="2:9" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B66" s="4">
         <v>2025</v>
       </c>
@@ -3072,10 +3408,10 @@
         <v>641</v>
       </c>
       <c r="I66" s="4">
-        <v>800000e-6</v>
-      </c>
-    </row>
-    <row r="67" s="1" customFormat="1" ht="19.7321" customHeight="1">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="67" spans="2:9" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B67" s="4">
         <v>2025</v>
       </c>
@@ -3101,7 +3437,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="68" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="68" spans="2:9" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B68" s="4">
         <v>2025</v>
       </c>
@@ -3127,7 +3463,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="69" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="69" spans="2:9" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B69" s="4">
         <v>2025</v>
       </c>
@@ -3150,10 +3486,10 @@
         <v>927</v>
       </c>
       <c r="I69" s="4">
-        <v>600000e-6</v>
-      </c>
-    </row>
-    <row r="70" s="1" customFormat="1" ht="19.7321" customHeight="1">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="70" spans="2:9" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B70" s="4">
         <v>2025</v>
       </c>
@@ -3176,10 +3512,10 @@
         <v>936</v>
       </c>
       <c r="I70" s="4">
-        <v>500000e-6</v>
-      </c>
-    </row>
-    <row r="71" s="1" customFormat="1" ht="19.7321" customHeight="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="71" spans="2:9" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B71" s="4">
         <v>2025</v>
       </c>
@@ -3202,10 +3538,10 @@
         <v>1170</v>
       </c>
       <c r="I71" s="4">
-        <v>700000e-6</v>
-      </c>
-    </row>
-    <row r="72" s="1" customFormat="1" ht="19.7321" customHeight="1">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="72" spans="2:9" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B72" s="4">
         <v>2025</v>
       </c>
@@ -3228,10 +3564,10 @@
         <v>1127</v>
       </c>
       <c r="I72" s="4">
-        <v>600000e-6</v>
-      </c>
-    </row>
-    <row r="73" s="1" customFormat="1" ht="19.7321" customHeight="1">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="73" spans="2:9" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B73" s="4">
         <v>2025</v>
       </c>
@@ -3257,7 +3593,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="74" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="74" spans="2:9" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B74" s="4">
         <v>2025</v>
       </c>
@@ -3280,10 +3616,10 @@
         <v>4118</v>
       </c>
       <c r="I74" s="4">
-        <v>2.2</v>
-      </c>
-    </row>
-    <row r="75" s="1" customFormat="1" ht="19.7321" customHeight="1">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="75" spans="2:9" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B75" s="4">
         <v>2025</v>
       </c>
@@ -3306,10 +3642,10 @@
         <v>494</v>
       </c>
       <c r="I75" s="4">
-        <v>400000e-6</v>
-      </c>
-    </row>
-    <row r="76" s="1" customFormat="1" ht="19.7321" customHeight="1">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="76" spans="2:9" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B76" s="4">
         <v>2025</v>
       </c>
@@ -3332,10 +3668,10 @@
         <v>534</v>
       </c>
       <c r="I76" s="4">
-        <v>400000e-6</v>
-      </c>
-    </row>
-    <row r="77" s="1" customFormat="1" ht="19.7321" customHeight="1">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="77" spans="2:9" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B77" s="4">
         <v>2025</v>
       </c>
@@ -3358,10 +3694,10 @@
         <v>871</v>
       </c>
       <c r="I77" s="4">
-        <v>700000e-6</v>
-      </c>
-    </row>
-    <row r="78" s="1" customFormat="1" ht="19.7321" customHeight="1">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="78" spans="2:9" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B78" s="4">
         <v>2025</v>
       </c>
@@ -3384,10 +3720,10 @@
         <v>900</v>
       </c>
       <c r="I78" s="4">
-        <v>700000e-6</v>
-      </c>
-    </row>
-    <row r="79" s="1" customFormat="1" ht="19.7321" customHeight="1">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="79" spans="2:9" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B79" s="4">
         <v>2025</v>
       </c>
@@ -3413,7 +3749,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="80" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="80" spans="2:9" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B80" s="4">
         <v>2025</v>
       </c>
@@ -3439,7 +3775,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="81" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="81" spans="2:9" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B81" s="4">
         <v>2025</v>
       </c>
@@ -3462,10 +3798,10 @@
         <v>176</v>
       </c>
       <c r="I81" s="4">
-        <v>400000e-6</v>
-      </c>
-    </row>
-    <row r="82" s="1" customFormat="1" ht="19.7321" customHeight="1">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="82" spans="2:9" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B82" s="4">
         <v>2025</v>
       </c>
@@ -3488,10 +3824,10 @@
         <v>190</v>
       </c>
       <c r="I82" s="4">
-        <v>400000e-6</v>
-      </c>
-    </row>
-    <row r="83" s="1" customFormat="1" ht="19.7321" customHeight="1">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="83" spans="2:9" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B83" s="4">
         <v>2025</v>
       </c>
@@ -3514,10 +3850,10 @@
         <v>203</v>
       </c>
       <c r="I83" s="4">
-        <v>500000e-6</v>
-      </c>
-    </row>
-    <row r="84" s="1" customFormat="1" ht="19.7321" customHeight="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="84" spans="2:9" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B84" s="4">
         <v>2025</v>
       </c>
@@ -3540,10 +3876,10 @@
         <v>264</v>
       </c>
       <c r="I84" s="4">
-        <v>500000e-6</v>
-      </c>
-    </row>
-    <row r="85" s="1" customFormat="1" ht="19.7321" customHeight="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="85" spans="2:9" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B85" s="4">
         <v>2025</v>
       </c>
@@ -3569,7 +3905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="86" spans="2:9" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B86" s="4">
         <v>2025</v>
       </c>
@@ -3595,7 +3931,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="87" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="87" spans="2:9" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B87" s="4">
         <v>2025</v>
       </c>
@@ -3618,10 +3954,10 @@
         <v>104</v>
       </c>
       <c r="I87" s="4">
-        <v>600000e-6</v>
-      </c>
-    </row>
-    <row r="88" s="1" customFormat="1" ht="19.7321" customHeight="1">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="88" spans="2:9" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B88" s="4">
         <v>2025</v>
       </c>
@@ -3644,10 +3980,10 @@
         <v>117</v>
       </c>
       <c r="I88" s="4">
-        <v>600000e-6</v>
-      </c>
-    </row>
-    <row r="89" s="1" customFormat="1" ht="19.7321" customHeight="1">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="89" spans="2:9" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B89" s="4">
         <v>2025</v>
       </c>
@@ -3673,7 +4009,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="90" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="90" spans="2:9" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B90" s="4">
         <v>2025</v>
       </c>
@@ -3699,7 +4035,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="91" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="91" spans="2:9" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B91" s="4">
         <v>2025</v>
       </c>
@@ -3725,7 +4061,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="92" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="92" spans="2:9" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B92" s="4">
         <v>2025</v>
       </c>
@@ -3752,33 +4088,35 @@
       </c>
     </row>
   </sheetData>
-  <pageSetup paperSize="9" scale="100" orientation="portrait"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="B1:R8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.70439866666667" customWidth="1"/>
-    <col min="2" max="4" width="10.7163133333333" customWidth="1"/>
-    <col min="5" max="5" width="23.6263666666667" customWidth="1"/>
-    <col min="6" max="6" width="31.2317" customWidth="1"/>
-    <col min="7" max="9" width="10.7163133333333" customWidth="1"/>
-    <col min="10" max="10" width="5.49905466666667" customWidth="1"/>
-    <col min="11" max="13" width="10.7163133333333" customWidth="1"/>
-    <col min="14" max="14" width="23.6263666666667" customWidth="1"/>
-    <col min="15" max="15" width="31.2317" customWidth="1"/>
-    <col min="16" max="16" width="12.5986333333333" customWidth="1"/>
-    <col min="17" max="18" width="10.7163133333333" customWidth="1"/>
+    <col min="1" max="1" width="5.7109375" customWidth="1"/>
+    <col min="2" max="4" width="10.7109375" customWidth="1"/>
+    <col min="5" max="5" width="23.5703125" customWidth="1"/>
+    <col min="6" max="6" width="31.28515625" customWidth="1"/>
+    <col min="7" max="9" width="10.7109375" customWidth="1"/>
+    <col min="10" max="10" width="5.42578125" customWidth="1"/>
+    <col min="11" max="13" width="10.7109375" customWidth="1"/>
+    <col min="14" max="14" width="23.5703125" customWidth="1"/>
+    <col min="15" max="15" width="31.28515625" customWidth="1"/>
+    <col min="16" max="16" width="12.5703125" customWidth="1"/>
+    <col min="17" max="18" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="83.7281" customHeight="1"/>
-    <row r="2" s="1" customFormat="1" ht="23.9985" customHeight="1">
+    <row r="1" spans="2:18" s="1" customFormat="1" ht="83.65" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="2:18" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -3824,7 +4162,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="3" spans="2:18" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="4">
         <v>2025</v>
       </c>
@@ -3847,7 +4185,7 @@
         <v>8617</v>
       </c>
       <c r="I3" s="4">
-        <v>600000e-6</v>
+        <v>0.6</v>
       </c>
       <c r="K3" s="4">
         <v>2025</v>
@@ -3871,10 +4209,10 @@
         <v>16689</v>
       </c>
       <c r="R3" s="4">
-        <v>600000e-6</v>
-      </c>
-    </row>
-    <row r="4" s="1" customFormat="1" ht="19.7321" customHeight="1">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="4" spans="2:18" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="4">
         <v>2025</v>
       </c>
@@ -3897,7 +4235,7 @@
         <v>8072</v>
       </c>
       <c r="I4" s="4">
-        <v>500000e-6</v>
+        <v>0.5</v>
       </c>
       <c r="K4" s="4">
         <v>2025</v>
@@ -3921,10 +4259,10 @@
         <v>21854</v>
       </c>
       <c r="R4" s="4">
-        <v>700000e-6</v>
-      </c>
-    </row>
-    <row r="5" s="1" customFormat="1" ht="19.7321" customHeight="1">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="5" spans="2:18" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="4">
         <v>2025</v>
       </c>
@@ -3947,7 +4285,7 @@
         <v>11008</v>
       </c>
       <c r="I5" s="4">
-        <v>800000e-6</v>
+        <v>0.8</v>
       </c>
       <c r="K5" s="4">
         <v>2025</v>
@@ -3971,10 +4309,10 @@
         <v>67821</v>
       </c>
       <c r="R5" s="4">
-        <v>2.3</v>
-      </c>
-    </row>
-    <row r="6" s="1" customFormat="1" ht="19.7321" customHeight="1">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="2:18" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="4">
         <v>2025</v>
       </c>
@@ -3997,10 +4335,10 @@
         <v>10846</v>
       </c>
       <c r="I6" s="4">
-        <v>700000e-6</v>
-      </c>
-    </row>
-    <row r="7" s="1" customFormat="1" ht="19.7321" customHeight="1">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="7" spans="2:18" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="4">
         <v>2025</v>
       </c>
@@ -4026,7 +4364,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="8" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="8" spans="2:18" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="4">
         <v>2025</v>
       </c>
@@ -4053,35 +4391,37 @@
       </c>
     </row>
   </sheetData>
-  <pageSetup paperSize="9" scale="100" orientation="portrait"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q103"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="B1:R103"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.70439866666667" customWidth="1"/>
-    <col min="2" max="3" width="10.7163133333333" customWidth="1"/>
-    <col min="4" max="4" width="18.8730333333333" customWidth="1"/>
-    <col min="5" max="5" width="27.6191666666667" customWidth="1"/>
-    <col min="6" max="6" width="31.2317" customWidth="1"/>
-    <col min="7" max="9" width="10.7163133333333" customWidth="1"/>
-    <col min="10" max="10" width="529312e-6" customWidth="1"/>
-    <col min="11" max="12" width="10.7163133333333" customWidth="1"/>
-    <col min="13" max="13" width="18.8730333333333" customWidth="1"/>
-    <col min="14" max="14" width="27.6191666666667" customWidth="1"/>
-    <col min="15" max="15" width="31.2317" customWidth="1"/>
-    <col min="16" max="16" width="12.5986333333333" customWidth="1"/>
-    <col min="17" max="18" width="10.7163133333333" customWidth="1"/>
+    <col min="1" max="1" width="5.7109375" customWidth="1"/>
+    <col min="2" max="3" width="10.7109375" customWidth="1"/>
+    <col min="4" max="4" width="18.85546875" customWidth="1"/>
+    <col min="5" max="5" width="27.5703125" customWidth="1"/>
+    <col min="6" max="6" width="31.28515625" customWidth="1"/>
+    <col min="7" max="9" width="10.7109375" customWidth="1"/>
+    <col min="10" max="10" width="0.5703125" customWidth="1"/>
+    <col min="11" max="12" width="10.7109375" customWidth="1"/>
+    <col min="13" max="13" width="18.85546875" customWidth="1"/>
+    <col min="14" max="14" width="27.5703125" customWidth="1"/>
+    <col min="15" max="15" width="31.28515625" customWidth="1"/>
+    <col min="16" max="16" width="12.5703125" customWidth="1"/>
+    <col min="17" max="18" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="83.7281" customHeight="1"/>
-    <row r="2" s="1" customFormat="1" ht="23.9985" customHeight="1">
+    <row r="1" spans="2:18" s="1" customFormat="1" ht="83.65" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="2:18" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -4127,7 +4467,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="3" spans="2:18" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="4">
         <v>2025</v>
       </c>
@@ -4150,7 +4490,7 @@
         <v>68</v>
       </c>
       <c r="I3" s="4">
-        <v>800000e-6</v>
+        <v>0.8</v>
       </c>
       <c r="K3" s="4">
         <v>2025</v>
@@ -4174,10 +4514,10 @@
         <v>133</v>
       </c>
       <c r="R3" s="4">
-        <v>700000e-6</v>
-      </c>
-    </row>
-    <row r="4" s="1" customFormat="1" ht="19.7321" customHeight="1">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="4" spans="2:18" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="4">
         <v>2025</v>
       </c>
@@ -4200,7 +4540,7 @@
         <v>65</v>
       </c>
       <c r="I4" s="4">
-        <v>700000e-6</v>
+        <v>0.7</v>
       </c>
       <c r="K4" s="4">
         <v>2025</v>
@@ -4224,10 +4564,10 @@
         <v>198</v>
       </c>
       <c r="R4" s="4">
-        <v>1.1</v>
-      </c>
-    </row>
-    <row r="5" s="1" customFormat="1" ht="19.7321" customHeight="1">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="2:18" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="4">
         <v>2025</v>
       </c>
@@ -4250,7 +4590,7 @@
         <v>100</v>
       </c>
       <c r="I5" s="4">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="K5" s="4">
         <v>2025</v>
@@ -4277,7 +4617,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="6" spans="2:18" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="4">
         <v>2025</v>
       </c>
@@ -4324,10 +4664,10 @@
         <v>185</v>
       </c>
       <c r="R6" s="4">
-        <v>700000e-6</v>
-      </c>
-    </row>
-    <row r="7" s="1" customFormat="1" ht="19.7321" customHeight="1">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="7" spans="2:18" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="4">
         <v>2025</v>
       </c>
@@ -4350,7 +4690,7 @@
         <v>197</v>
       </c>
       <c r="I7" s="4">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="K7" s="4">
         <v>2025</v>
@@ -4374,10 +4714,10 @@
         <v>297</v>
       </c>
       <c r="R7" s="4">
-        <v>1.1</v>
-      </c>
-    </row>
-    <row r="8" s="1" customFormat="1" ht="19.7321" customHeight="1">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="2:18" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="4">
         <v>2025</v>
       </c>
@@ -4427,7 +4767,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="9" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="9" spans="2:18" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="4">
         <v>2025</v>
       </c>
@@ -4450,7 +4790,7 @@
         <v>90</v>
       </c>
       <c r="I9" s="4">
-        <v>700000e-6</v>
+        <v>0.7</v>
       </c>
       <c r="K9" s="4">
         <v>2025</v>
@@ -4474,10 +4814,10 @@
         <v>51</v>
       </c>
       <c r="R9" s="4">
-        <v>800000e-6</v>
-      </c>
-    </row>
-    <row r="10" s="1" customFormat="1" ht="19.7321" customHeight="1">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="10" spans="2:18" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="4">
         <v>2025</v>
       </c>
@@ -4500,7 +4840,7 @@
         <v>95</v>
       </c>
       <c r="I10" s="4">
-        <v>700000e-6</v>
+        <v>0.7</v>
       </c>
       <c r="K10" s="4">
         <v>2025</v>
@@ -4524,10 +4864,10 @@
         <v>46</v>
       </c>
       <c r="R10" s="4">
-        <v>700000e-6</v>
-      </c>
-    </row>
-    <row r="11" s="1" customFormat="1" ht="19.7321" customHeight="1">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="11" spans="2:18" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="4">
         <v>2025</v>
       </c>
@@ -4577,7 +4917,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="12" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="12" spans="2:18" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="4">
         <v>2025</v>
       </c>
@@ -4600,7 +4940,7 @@
         <v>159</v>
       </c>
       <c r="I12" s="4">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="K12" s="4">
         <v>2025</v>
@@ -4624,10 +4964,10 @@
         <v>7</v>
       </c>
       <c r="R12" s="4">
-        <v>600000e-6</v>
-      </c>
-    </row>
-    <row r="13" s="1" customFormat="1" ht="19.7321" customHeight="1">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="13" spans="2:18" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="4">
         <v>2025</v>
       </c>
@@ -4674,10 +5014,10 @@
         <v>6</v>
       </c>
       <c r="R13" s="4">
-        <v>500000e-6</v>
-      </c>
-    </row>
-    <row r="14" s="1" customFormat="1" ht="19.7321" customHeight="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="14" spans="2:18" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="4">
         <v>2025</v>
       </c>
@@ -4727,7 +5067,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="15" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="15" spans="2:18" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="4">
         <v>2025</v>
       </c>
@@ -4750,7 +5090,7 @@
         <v>24</v>
       </c>
       <c r="I15" s="4">
-        <v>800000e-6</v>
+        <v>0.8</v>
       </c>
       <c r="K15" s="4">
         <v>2025</v>
@@ -4774,10 +5114,10 @@
         <v>62</v>
       </c>
       <c r="R15" s="4">
-        <v>900000e-6</v>
-      </c>
-    </row>
-    <row r="16" s="1" customFormat="1" ht="19.7321" customHeight="1">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="16" spans="2:18" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="4">
         <v>2025</v>
       </c>
@@ -4800,7 +5140,7 @@
         <v>27</v>
       </c>
       <c r="I16" s="4">
-        <v>800000e-6</v>
+        <v>0.8</v>
       </c>
       <c r="K16" s="4">
         <v>2025</v>
@@ -4827,7 +5167,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="17" spans="2:18" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="4">
         <v>2025</v>
       </c>
@@ -4850,7 +5190,7 @@
         <v>24</v>
       </c>
       <c r="I17" s="4">
-        <v>800000e-6</v>
+        <v>0.8</v>
       </c>
       <c r="K17" s="4">
         <v>2025</v>
@@ -4877,7 +5217,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="18" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="18" spans="2:18" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="4">
         <v>2025</v>
       </c>
@@ -4900,7 +5240,7 @@
         <v>22</v>
       </c>
       <c r="I18" s="4">
-        <v>600000e-6</v>
+        <v>0.6</v>
       </c>
       <c r="K18" s="4">
         <v>2025</v>
@@ -4924,10 +5264,10 @@
         <v>29</v>
       </c>
       <c r="R18" s="4">
-        <v>600000e-6</v>
-      </c>
-    </row>
-    <row r="19" s="1" customFormat="1" ht="19.7321" customHeight="1">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="19" spans="2:18" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="4">
         <v>2025</v>
       </c>
@@ -4977,7 +5317,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="20" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="20" spans="2:18" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="4">
         <v>2025</v>
       </c>
@@ -5027,7 +5367,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="21" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="21" spans="2:18" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="4">
         <v>2025</v>
       </c>
@@ -5050,7 +5390,7 @@
         <v>4</v>
       </c>
       <c r="I21" s="4">
-        <v>700000e-6</v>
+        <v>0.7</v>
       </c>
       <c r="K21" s="4">
         <v>2025</v>
@@ -5074,10 +5414,10 @@
         <v>22</v>
       </c>
       <c r="R21" s="4">
-        <v>1.1</v>
-      </c>
-    </row>
-    <row r="22" s="1" customFormat="1" ht="19.7321" customHeight="1">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="2:18" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="4">
         <v>2025</v>
       </c>
@@ -5100,7 +5440,7 @@
         <v>36</v>
       </c>
       <c r="I22" s="4">
-        <v>400000e-6</v>
+        <v>0.4</v>
       </c>
       <c r="K22" s="4">
         <v>2025</v>
@@ -5124,10 +5464,10 @@
         <v>12</v>
       </c>
       <c r="R22" s="4">
-        <v>600000e-6</v>
-      </c>
-    </row>
-    <row r="23" s="1" customFormat="1" ht="19.7321" customHeight="1">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="23" spans="2:18" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="4">
         <v>2025</v>
       </c>
@@ -5150,7 +5490,7 @@
         <v>36</v>
       </c>
       <c r="I23" s="4">
-        <v>600000e-6</v>
+        <v>0.6</v>
       </c>
       <c r="K23" s="4">
         <v>2025</v>
@@ -5177,7 +5517,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="24" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="24" spans="2:18" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="4">
         <v>2025</v>
       </c>
@@ -5200,7 +5540,7 @@
         <v>36</v>
       </c>
       <c r="I24" s="4">
-        <v>400000e-6</v>
+        <v>0.4</v>
       </c>
       <c r="K24" s="4">
         <v>2025</v>
@@ -5224,10 +5564,10 @@
         <v>28</v>
       </c>
       <c r="R24" s="4">
-        <v>900000e-6</v>
-      </c>
-    </row>
-    <row r="25" s="1" customFormat="1" ht="19.7321" customHeight="1">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="25" spans="2:18" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="4">
         <v>2025</v>
       </c>
@@ -5274,10 +5614,10 @@
         <v>19</v>
       </c>
       <c r="R25" s="4">
-        <v>600000e-6</v>
-      </c>
-    </row>
-    <row r="26" s="1" customFormat="1" ht="19.7321" customHeight="1">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="26" spans="2:18" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="4">
         <v>2025</v>
       </c>
@@ -5327,7 +5667,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="27" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="27" spans="2:18" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="4">
         <v>2025</v>
       </c>
@@ -5350,7 +5690,7 @@
         <v>14</v>
       </c>
       <c r="I27" s="4">
-        <v>400000e-6</v>
+        <v>0.4</v>
       </c>
       <c r="K27" s="4">
         <v>2025</v>
@@ -5377,7 +5717,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="28" spans="2:18" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="4">
         <v>2025</v>
       </c>
@@ -5424,10 +5764,10 @@
         <v>40</v>
       </c>
       <c r="R28" s="4">
-        <v>800000e-6</v>
-      </c>
-    </row>
-    <row r="29" s="1" customFormat="1" ht="19.7321" customHeight="1">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="29" spans="2:18" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="4">
         <v>2025</v>
       </c>
@@ -5477,7 +5817,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="30" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="30" spans="2:18" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="4">
         <v>2025</v>
       </c>
@@ -5500,7 +5840,7 @@
         <v>31</v>
       </c>
       <c r="I30" s="4">
-        <v>800000e-6</v>
+        <v>0.8</v>
       </c>
       <c r="K30" s="4">
         <v>2025</v>
@@ -5524,10 +5864,10 @@
         <v>10</v>
       </c>
       <c r="R30" s="4">
-        <v>700000e-6</v>
-      </c>
-    </row>
-    <row r="31" s="1" customFormat="1" ht="19.7321" customHeight="1">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="31" spans="2:18" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="4">
         <v>2025</v>
       </c>
@@ -5550,7 +5890,7 @@
         <v>75</v>
       </c>
       <c r="I31" s="4">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="K31" s="4">
         <v>2025</v>
@@ -5574,10 +5914,10 @@
         <v>6</v>
       </c>
       <c r="R31" s="4">
-        <v>400000e-6</v>
-      </c>
-    </row>
-    <row r="32" s="1" customFormat="1" ht="19.7321" customHeight="1">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="32" spans="2:18" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="4">
         <v>2025</v>
       </c>
@@ -5627,7 +5967,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="33" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="33" spans="2:18" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="4">
         <v>2025</v>
       </c>
@@ -5650,7 +5990,7 @@
         <v>14</v>
       </c>
       <c r="I33" s="4">
-        <v>600000e-6</v>
+        <v>0.6</v>
       </c>
       <c r="K33" s="4">
         <v>2025</v>
@@ -5674,10 +6014,10 @@
         <v>7</v>
       </c>
       <c r="R33" s="4">
-        <v>900000e-6</v>
-      </c>
-    </row>
-    <row r="34" s="1" customFormat="1" ht="19.7321" customHeight="1">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="4">
         <v>2025</v>
       </c>
@@ -5700,7 +6040,7 @@
         <v>15</v>
       </c>
       <c r="I34" s="4">
-        <v>600000e-6</v>
+        <v>0.6</v>
       </c>
       <c r="K34" s="4">
         <v>2025</v>
@@ -5727,7 +6067,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="35" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="35" spans="2:18" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="4">
         <v>2025</v>
       </c>
@@ -5777,7 +6117,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="36" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="36" spans="2:18" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="4">
         <v>2025</v>
       </c>
@@ -5824,10 +6164,10 @@
         <v>18</v>
       </c>
       <c r="R36" s="4">
-        <v>600000e-6</v>
-      </c>
-    </row>
-    <row r="37" s="1" customFormat="1" ht="19.7321" customHeight="1">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="4">
         <v>2025</v>
       </c>
@@ -5874,10 +6214,10 @@
         <v>22</v>
       </c>
       <c r="R37" s="4">
-        <v>800000e-6</v>
-      </c>
-    </row>
-    <row r="38" s="1" customFormat="1" ht="19.7321" customHeight="1">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="38" spans="2:18" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="4">
         <v>2025</v>
       </c>
@@ -5900,7 +6240,7 @@
         <v>104</v>
       </c>
       <c r="I38" s="4">
-        <v>4.1</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="K38" s="4">
         <v>2025</v>
@@ -5927,7 +6267,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="39" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="39" spans="2:18" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="4">
         <v>2025</v>
       </c>
@@ -5974,10 +6314,10 @@
         <v>8</v>
       </c>
       <c r="R39" s="4">
-        <v>600000e-6</v>
-      </c>
-    </row>
-    <row r="40" s="1" customFormat="1" ht="19.7321" customHeight="1">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="40" spans="2:18" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="4">
         <v>2025</v>
       </c>
@@ -6024,10 +6364,10 @@
         <v>9</v>
       </c>
       <c r="R40" s="4">
-        <v>700000e-6</v>
-      </c>
-    </row>
-    <row r="41" s="1" customFormat="1" ht="19.7321" customHeight="1">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="41" spans="2:18" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" s="4">
         <v>2025</v>
       </c>
@@ -6050,7 +6390,7 @@
         <v>7</v>
       </c>
       <c r="I41" s="4">
-        <v>800000e-6</v>
+        <v>0.8</v>
       </c>
       <c r="K41" s="4">
         <v>2025</v>
@@ -6077,7 +6417,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="42" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="42" spans="2:18" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B42" s="4">
         <v>2025</v>
       </c>
@@ -6100,7 +6440,7 @@
         <v>5</v>
       </c>
       <c r="I42" s="4">
-        <v>500000e-6</v>
+        <v>0.5</v>
       </c>
       <c r="K42" s="4">
         <v>2025</v>
@@ -6127,7 +6467,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="43" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="43" spans="2:18" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B43" s="4">
         <v>2025</v>
       </c>
@@ -6174,10 +6514,10 @@
         <v>6</v>
       </c>
       <c r="R43" s="4">
-        <v>800000e-6</v>
-      </c>
-    </row>
-    <row r="44" s="1" customFormat="1" ht="19.7321" customHeight="1">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B44" s="4">
         <v>2025</v>
       </c>
@@ -6227,7 +6567,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="45" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="45" spans="2:18" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B45" s="4">
         <v>2025</v>
       </c>
@@ -6250,7 +6590,7 @@
         <v>16</v>
       </c>
       <c r="I45" s="4">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="K45" s="4">
         <v>2025</v>
@@ -6277,7 +6617,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="46" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="46" spans="2:18" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B46" s="4">
         <v>2025</v>
       </c>
@@ -6300,7 +6640,7 @@
         <v>12</v>
       </c>
       <c r="I46" s="4">
-        <v>700000e-6</v>
+        <v>0.7</v>
       </c>
       <c r="K46" s="4">
         <v>2025</v>
@@ -6324,10 +6664,10 @@
         <v>4</v>
       </c>
       <c r="R46" s="4">
-        <v>600000e-6</v>
-      </c>
-    </row>
-    <row r="47" s="1" customFormat="1" ht="19.7321" customHeight="1">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B47" s="4">
         <v>2025</v>
       </c>
@@ -6350,7 +6690,7 @@
         <v>9</v>
       </c>
       <c r="I47" s="4">
-        <v>600000e-6</v>
+        <v>0.6</v>
       </c>
       <c r="K47" s="4">
         <v>2025</v>
@@ -6377,7 +6717,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="48" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="48" spans="2:18" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B48" s="4">
         <v>2025</v>
       </c>
@@ -6400,7 +6740,7 @@
         <v>10</v>
       </c>
       <c r="I48" s="4">
-        <v>600000e-6</v>
+        <v>0.6</v>
       </c>
       <c r="K48" s="4">
         <v>2025</v>
@@ -6424,10 +6764,10 @@
         <v>5</v>
       </c>
       <c r="R48" s="4">
-        <v>400000e-6</v>
-      </c>
-    </row>
-    <row r="49" s="1" customFormat="1" ht="19.7321" customHeight="1">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="49" spans="2:18" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B49" s="4">
         <v>2025</v>
       </c>
@@ -6474,10 +6814,10 @@
         <v>36</v>
       </c>
       <c r="R49" s="4">
-        <v>300000e-6</v>
-      </c>
-    </row>
-    <row r="50" s="1" customFormat="1" ht="19.7321" customHeight="1">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="50" spans="2:18" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B50" s="4">
         <v>2025</v>
       </c>
@@ -6527,7 +6867,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="51" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="51" spans="2:18" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B51" s="4">
         <v>2025</v>
       </c>
@@ -6550,7 +6890,7 @@
         <v>28</v>
       </c>
       <c r="I51" s="4">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="K51" s="4">
         <v>2025</v>
@@ -6574,10 +6914,10 @@
         <v>11</v>
       </c>
       <c r="R51" s="4">
-        <v>500000e-6</v>
-      </c>
-    </row>
-    <row r="52" s="1" customFormat="1" ht="19.7321" customHeight="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="52" spans="2:18" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B52" s="4">
         <v>2025</v>
       </c>
@@ -6600,7 +6940,7 @@
         <v>25</v>
       </c>
       <c r="I52" s="4">
-        <v>900000e-6</v>
+        <v>0.9</v>
       </c>
       <c r="K52" s="4">
         <v>2025</v>
@@ -6624,10 +6964,10 @@
         <v>16</v>
       </c>
       <c r="R52" s="4">
-        <v>800000e-6</v>
-      </c>
-    </row>
-    <row r="53" s="1" customFormat="1" ht="19.7321" customHeight="1">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="53" spans="2:18" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B53" s="4">
         <v>2025</v>
       </c>
@@ -6650,7 +6990,7 @@
         <v>21</v>
       </c>
       <c r="I53" s="4">
-        <v>800000e-6</v>
+        <v>0.8</v>
       </c>
       <c r="K53" s="4">
         <v>2025</v>
@@ -6674,10 +7014,10 @@
         <v>46</v>
       </c>
       <c r="R53" s="4">
-        <v>2.2</v>
-      </c>
-    </row>
-    <row r="54" s="1" customFormat="1" ht="19.7321" customHeight="1">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="54" spans="2:18" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B54" s="4">
         <v>2025</v>
       </c>
@@ -6700,10 +7040,10 @@
         <v>19</v>
       </c>
       <c r="I54" s="4">
-        <v>700000e-6</v>
-      </c>
-    </row>
-    <row r="55" s="1" customFormat="1" ht="19.7321" customHeight="1">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="55" spans="2:18" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B55" s="4">
         <v>2025</v>
       </c>
@@ -6726,10 +7066,10 @@
         <v>55</v>
       </c>
       <c r="I55" s="4">
-        <v>2.2</v>
-      </c>
-    </row>
-    <row r="56" s="1" customFormat="1" ht="19.7321" customHeight="1">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="56" spans="2:18" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B56" s="4">
         <v>2025</v>
       </c>
@@ -6755,7 +7095,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="57" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="57" spans="2:18" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B57" s="4">
         <v>2025</v>
       </c>
@@ -6778,10 +7118,10 @@
         <v>6</v>
       </c>
       <c r="I57" s="4">
-        <v>800000e-6</v>
-      </c>
-    </row>
-    <row r="58" s="1" customFormat="1" ht="19.7321" customHeight="1">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="58" spans="2:18" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B58" s="4">
         <v>2025</v>
       </c>
@@ -6804,10 +7144,10 @@
         <v>4</v>
       </c>
       <c r="I58" s="4">
-        <v>500000e-6</v>
-      </c>
-    </row>
-    <row r="59" s="1" customFormat="1" ht="19.7321" customHeight="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="59" spans="2:18" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B59" s="4">
         <v>2025</v>
       </c>
@@ -6830,10 +7170,10 @@
         <v>5</v>
       </c>
       <c r="I59" s="4">
-        <v>700000e-6</v>
-      </c>
-    </row>
-    <row r="60" s="1" customFormat="1" ht="19.7321" customHeight="1">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="60" spans="2:18" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B60" s="4">
         <v>2025</v>
       </c>
@@ -6856,10 +7196,10 @@
         <v>36</v>
       </c>
       <c r="I60" s="4">
-        <v>100000e-6</v>
-      </c>
-    </row>
-    <row r="61" s="1" customFormat="1" ht="19.7321" customHeight="1">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="61" spans="2:18" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B61" s="4">
         <v>2025</v>
       </c>
@@ -6882,10 +7222,10 @@
         <v>16</v>
       </c>
       <c r="I61" s="4">
-        <v>2.2</v>
-      </c>
-    </row>
-    <row r="62" s="1" customFormat="1" ht="19.7321" customHeight="1">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="62" spans="2:18" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B62" s="4">
         <v>2025</v>
       </c>
@@ -6911,7 +7251,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="63" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="63" spans="2:18" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B63" s="4">
         <v>2025</v>
       </c>
@@ -6937,7 +7277,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="64" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="64" spans="2:18" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B64" s="4">
         <v>2025</v>
       </c>
@@ -6960,10 +7300,10 @@
         <v>36</v>
       </c>
       <c r="I64" s="4">
-        <v>500000e-6</v>
-      </c>
-    </row>
-    <row r="65" s="1" customFormat="1" ht="19.7321" customHeight="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="65" spans="2:9" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B65" s="4">
         <v>2025</v>
       </c>
@@ -6989,7 +7329,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="66" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="66" spans="2:9" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B66" s="4">
         <v>2025</v>
       </c>
@@ -7015,7 +7355,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="67" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="67" spans="2:9" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B67" s="4">
         <v>2025</v>
       </c>
@@ -7041,7 +7381,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="68" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="68" spans="2:9" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B68" s="4">
         <v>2025</v>
       </c>
@@ -7067,7 +7407,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="69" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="69" spans="2:9" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B69" s="4">
         <v>2025</v>
       </c>
@@ -7090,10 +7430,10 @@
         <v>8</v>
       </c>
       <c r="I69" s="4">
-        <v>600000e-6</v>
-      </c>
-    </row>
-    <row r="70" s="1" customFormat="1" ht="19.7321" customHeight="1">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="70" spans="2:9" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B70" s="4">
         <v>2025</v>
       </c>
@@ -7116,10 +7456,10 @@
         <v>10</v>
       </c>
       <c r="I70" s="4">
-        <v>700000e-6</v>
-      </c>
-    </row>
-    <row r="71" s="1" customFormat="1" ht="19.7321" customHeight="1">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="71" spans="2:9" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B71" s="4">
         <v>2025</v>
       </c>
@@ -7142,10 +7482,10 @@
         <v>12</v>
       </c>
       <c r="I71" s="4">
-        <v>900000e-6</v>
-      </c>
-    </row>
-    <row r="72" s="1" customFormat="1" ht="19.7321" customHeight="1">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="72" spans="2:9" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B72" s="4">
         <v>2025</v>
       </c>
@@ -7168,10 +7508,10 @@
         <v>10</v>
       </c>
       <c r="I72" s="4">
-        <v>700000e-6</v>
-      </c>
-    </row>
-    <row r="73" s="1" customFormat="1" ht="19.7321" customHeight="1">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="73" spans="2:9" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B73" s="4">
         <v>2025</v>
       </c>
@@ -7197,7 +7537,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="74" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="74" spans="2:9" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B74" s="4">
         <v>2025</v>
       </c>
@@ -7223,7 +7563,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="75" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="75" spans="2:9" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B75" s="4">
         <v>2025</v>
       </c>
@@ -7249,7 +7589,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="76" spans="2:9" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B76" s="4">
         <v>2025</v>
       </c>
@@ -7272,10 +7612,10 @@
         <v>36</v>
       </c>
       <c r="I76" s="4">
-        <v>300000e-6</v>
-      </c>
-    </row>
-    <row r="77" s="1" customFormat="1" ht="19.7321" customHeight="1">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:9" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B77" s="4">
         <v>2025</v>
       </c>
@@ -7298,10 +7638,10 @@
         <v>5</v>
       </c>
       <c r="I77" s="4">
-        <v>900000e-6</v>
-      </c>
-    </row>
-    <row r="78" s="1" customFormat="1" ht="19.7321" customHeight="1">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="78" spans="2:9" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B78" s="4">
         <v>2025</v>
       </c>
@@ -7324,10 +7664,10 @@
         <v>4</v>
       </c>
       <c r="I78" s="4">
-        <v>600000e-6</v>
-      </c>
-    </row>
-    <row r="79" s="1" customFormat="1" ht="19.7321" customHeight="1">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="79" spans="2:9" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B79" s="4">
         <v>2025</v>
       </c>
@@ -7350,10 +7690,10 @@
         <v>13</v>
       </c>
       <c r="I79" s="4">
-        <v>2.3</v>
-      </c>
-    </row>
-    <row r="80" s="1" customFormat="1" ht="19.7321" customHeight="1">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="80" spans="2:9" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B80" s="4">
         <v>2025</v>
       </c>
@@ -7379,7 +7719,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="81" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="81" spans="2:9" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B81" s="4">
         <v>2025</v>
       </c>
@@ -7405,7 +7745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="82" spans="2:9" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B82" s="4">
         <v>2025</v>
       </c>
@@ -7431,7 +7771,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="83" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="83" spans="2:9" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B83" s="4">
         <v>2025</v>
       </c>
@@ -7457,7 +7797,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="84" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="84" spans="2:9" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B84" s="4">
         <v>2025</v>
       </c>
@@ -7480,10 +7820,10 @@
         <v>36</v>
       </c>
       <c r="I84" s="4">
-        <v>500000e-6</v>
-      </c>
-    </row>
-    <row r="85" s="1" customFormat="1" ht="19.7321" customHeight="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="85" spans="2:9" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B85" s="4">
         <v>2025</v>
       </c>
@@ -7509,7 +7849,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="86" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="86" spans="2:9" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B86" s="4">
         <v>2025</v>
       </c>
@@ -7535,7 +7875,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="87" spans="2:9" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B87" s="4">
         <v>2025</v>
       </c>
@@ -7561,7 +7901,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="88" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="88" spans="2:9" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B88" s="4">
         <v>2025</v>
       </c>
@@ -7587,7 +7927,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="89" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="89" spans="2:9" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B89" s="4">
         <v>2025</v>
       </c>
@@ -7610,10 +7950,10 @@
         <v>4</v>
       </c>
       <c r="I89" s="4">
-        <v>1.1</v>
-      </c>
-    </row>
-    <row r="90" s="1" customFormat="1" ht="19.7321" customHeight="1">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="90" spans="2:9" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B90" s="4">
         <v>2025</v>
       </c>
@@ -7639,7 +7979,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="91" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="91" spans="2:9" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B91" s="4">
         <v>2025</v>
       </c>
@@ -7665,7 +8005,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="92" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="92" spans="2:9" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B92" s="4">
         <v>2025</v>
       </c>
@@ -7688,10 +8028,10 @@
         <v>36</v>
       </c>
       <c r="I92" s="4">
-        <v>200000e-6</v>
-      </c>
-    </row>
-    <row r="93" s="1" customFormat="1" ht="19.7321" customHeight="1">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="93" spans="2:9" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B93" s="4">
         <v>2025</v>
       </c>
@@ -7714,10 +8054,10 @@
         <v>4</v>
       </c>
       <c r="I93" s="4">
-        <v>600000e-6</v>
-      </c>
-    </row>
-    <row r="94" s="1" customFormat="1" ht="19.7321" customHeight="1">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="94" spans="2:9" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B94" s="4">
         <v>2025</v>
       </c>
@@ -7740,10 +8080,10 @@
         <v>36</v>
       </c>
       <c r="I94" s="4">
-        <v>400000e-6</v>
-      </c>
-    </row>
-    <row r="95" s="1" customFormat="1" ht="19.7321" customHeight="1">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="95" spans="2:9" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B95" s="4">
         <v>2025</v>
       </c>
@@ -7766,10 +8106,10 @@
         <v>36</v>
       </c>
       <c r="I95" s="4">
-        <v>200000e-6</v>
-      </c>
-    </row>
-    <row r="96" s="1" customFormat="1" ht="19.7321" customHeight="1">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="96" spans="2:9" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B96" s="4">
         <v>2025</v>
       </c>
@@ -7792,10 +8132,10 @@
         <v>4</v>
       </c>
       <c r="I96" s="4">
-        <v>700000e-6</v>
-      </c>
-    </row>
-    <row r="97" s="1" customFormat="1" ht="19.7321" customHeight="1">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="97" spans="2:9" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B97" s="4">
         <v>2025</v>
       </c>
@@ -7821,7 +8161,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="98" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="98" spans="2:9" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B98" s="4">
         <v>2025</v>
       </c>
@@ -7844,10 +8184,10 @@
         <v>36</v>
       </c>
       <c r="I98" s="4">
-        <v>300000e-6</v>
-      </c>
-    </row>
-    <row r="99" s="1" customFormat="1" ht="19.7321" customHeight="1">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="99" spans="2:9" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B99" s="4">
         <v>2025</v>
       </c>
@@ -7870,10 +8210,10 @@
         <v>8</v>
       </c>
       <c r="I99" s="4">
-        <v>700000e-6</v>
-      </c>
-    </row>
-    <row r="100" s="1" customFormat="1" ht="19.7321" customHeight="1">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="100" spans="2:9" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B100" s="4">
         <v>2025</v>
       </c>
@@ -7896,10 +8236,10 @@
         <v>9</v>
       </c>
       <c r="I100" s="4">
-        <v>900000e-6</v>
-      </c>
-    </row>
-    <row r="101" s="1" customFormat="1" ht="19.7321" customHeight="1">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="101" spans="2:9" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B101" s="4">
         <v>2025</v>
       </c>
@@ -7922,10 +8262,10 @@
         <v>7</v>
       </c>
       <c r="I101" s="4">
-        <v>700000e-6</v>
-      </c>
-    </row>
-    <row r="102" s="1" customFormat="1" ht="19.7321" customHeight="1">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="102" spans="2:9" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B102" s="4">
         <v>2025</v>
       </c>
@@ -7951,7 +8291,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="103" s="1" customFormat="1" ht="19.7321" customHeight="1">
+    <row r="103" spans="2:9" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B103" s="4">
         <v>2025</v>
       </c>
@@ -7978,7 +8318,8 @@
       </c>
     </row>
   </sheetData>
-  <pageSetup paperSize="9" scale="100" orientation="portrait"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>